--- a/MuestrasAplicandoFiltrado.xlsx
+++ b/MuestrasAplicandoFiltrado.xlsx
@@ -7,7 +7,8 @@
     <sheet state="visible" name="WILCOXON-C2-NLA" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="WILCOXON-C2-NLM" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="WILCOXON-C2-NLB" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="KW-C2" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="KRUSKALL-WALLIS-CE1" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="KRUSKALL-WALLIS-CE2" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="45">
   <si>
     <t>Caso</t>
   </si>
@@ -286,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -355,6 +356,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -407,6 +409,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -9108,55 +9114,48 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("{BD_ESTUDIO!A1:J1; FILTER(BD_ESTUDIO!A2:J1000, BD_ESTUDIO!I2:I1000=""Alto"", BD_ESTUDIO!E2:E1000=2, BD_ESTUDIO!F2:F1000=""SI"")}"),"Caso")</f>
-        <v>Caso</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sexo")</f>
-        <v>Sexo</v>
-      </c>
-      <c r="C1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Grado")</f>
-        <v>Grado</v>
-      </c>
-      <c r="D1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Grupo")</f>
-        <v>Grupo</v>
-      </c>
-      <c r="E1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Condicion_Experimental")</f>
-        <v>Condicion_Experimental</v>
-      </c>
-      <c r="F1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Participacion")</f>
-        <v>Participacion</v>
-      </c>
-      <c r="G1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Promedio ")</f>
-        <v>Promedio </v>
-      </c>
-      <c r="H1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Puntaje_Pretest")</f>
-        <v>Puntaje_Pretest</v>
-      </c>
-      <c r="I1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NivelLectura-Pretest")</f>
-        <v>NivelLectura-Pretest</v>
-      </c>
-      <c r="J1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Puntaje_Postest")</f>
-        <v>Puntaje_Postest</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(  BD_ESTUDIO!A2:J1000,  (TRIM(BD_ESTUDIO!I2:I1000)=""Alto"") *  (  (BD_ESTUDIO!E2:E1000=2)*(TRIM(BD_ESTUDIO!F2:F1000)=""SI"")))"),8.0)</f>
         <v>8</v>
       </c>
       <c r="B2" s="10" t="str">
@@ -9240,32 +9239,32 @@
     </row>
     <row r="4">
       <c r="A4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
-        <v>89</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),43.0)</f>
+        <v>43</v>
       </c>
       <c r="B4" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
         <v>F</v>
       </c>
       <c r="C4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="D4" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E4" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
       <c r="F4" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI ")</f>
+        <v>SI </v>
       </c>
       <c r="G4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.4)</f>
-        <v>9.4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.54)</f>
+        <v>8.54</v>
       </c>
       <c r="H4" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
@@ -9276,14 +9275,14 @@
         <v>Alto</v>
       </c>
       <c r="J4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),102.0)</f>
-        <v>102</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
+        <v>89</v>
       </c>
       <c r="B5" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -9294,8 +9293,8 @@
         <v>2</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E5" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -9306,38 +9305,38 @@
         <v>SI</v>
       </c>
       <c r="G5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
-        <v>8.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.4)</f>
+        <v>9.4</v>
       </c>
       <c r="H5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
       </c>
       <c r="I5" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
         <v>Alto</v>
       </c>
       <c r="J5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),102.0)</f>
+        <v>102</v>
       </c>
       <c r="B6" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E6" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -9362,6 +9361,132 @@
       <c r="J6" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
         <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),107.0)</f>
+        <v>107</v>
+      </c>
+      <c r="B7" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C7" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E7" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI ")</f>
+        <v>SI </v>
+      </c>
+      <c r="G7" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.38)</f>
+        <v>9.38</v>
+      </c>
+      <c r="H7" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
+      </c>
+      <c r="J7" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C8" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E8" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G8" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H8" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
+      </c>
+      <c r="J8" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),164.0)</f>
+        <v>164</v>
+      </c>
+      <c r="B9" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI ")</f>
+        <v>SI </v>
+      </c>
+      <c r="G9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
+      </c>
+      <c r="H9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
+      </c>
+      <c r="J9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -9375,60 +9500,53 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("{BD_ESTUDIO!A1:J1; FILTER(BD_ESTUDIO!A2:J1000, BD_ESTUDIO!I2:I1000=""Medio"", BD_ESTUDIO!E2:E1000=2, BD_ESTUDIO!F2:F1000=""SI"")}"),"Caso")</f>
-        <v>Caso</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sexo")</f>
-        <v>Sexo</v>
-      </c>
-      <c r="C1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Grado")</f>
-        <v>Grado</v>
-      </c>
-      <c r="D1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Grupo")</f>
-        <v>Grupo</v>
-      </c>
-      <c r="E1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Condicion_Experimental")</f>
-        <v>Condicion_Experimental</v>
-      </c>
-      <c r="F1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Participacion")</f>
-        <v>Participacion</v>
-      </c>
-      <c r="G1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Promedio ")</f>
-        <v>Promedio </v>
-      </c>
-      <c r="H1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Puntaje_Pretest")</f>
-        <v>Puntaje_Pretest</v>
-      </c>
-      <c r="I1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NivelLectura-Pretest")</f>
-        <v>NivelLectura-Pretest</v>
-      </c>
-      <c r="J1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Puntaje_Postest")</f>
-        <v>Puntaje_Postest</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(  BD_ESTUDIO!A2:J1000,  (TRIM(BD_ESTUDIO!I2:I1000)=""Medio"") *  (  (BD_ESTUDIO!E2:E1000=2)*(TRIM(BD_ESTUDIO!F2:F1000)=""SI"")))"),5.0)</f>
+        <v>5</v>
       </c>
       <c r="B2" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C2" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -9443,30 +9561,30 @@
         <v>2</v>
       </c>
       <c r="F2" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI ")</f>
+        <v>SI </v>
       </c>
       <c r="G2" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.8)</f>
-        <v>8.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.6)</f>
+        <v>8.6</v>
       </c>
       <c r="H2" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="I2" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J2" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
+        <v>17</v>
       </c>
       <c r="B3" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -9477,8 +9595,8 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E3" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -9489,26 +9607,26 @@
         <v>SI</v>
       </c>
       <c r="G3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.8)</f>
+        <v>8.8</v>
       </c>
       <c r="H3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
       <c r="I3" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
       </c>
       <c r="B4" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -9531,26 +9649,26 @@
         <v>SI</v>
       </c>
       <c r="G4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.84)</f>
-        <v>9.84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
       </c>
       <c r="H4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="I4" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="B5" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -9561,8 +9679,8 @@
         <v>1</v>
       </c>
       <c r="D5" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E5" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -9573,30 +9691,30 @@
         <v>SI</v>
       </c>
       <c r="G5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.1)</f>
-        <v>8.1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.84)</f>
+        <v>9.84</v>
       </c>
       <c r="H5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="I5" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
-        <v>53</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
       </c>
       <c r="B6" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C6" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -9615,38 +9733,38 @@
         <v>SI</v>
       </c>
       <c r="G6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.6)</f>
-        <v>9.6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.1)</f>
+        <v>8.1</v>
       </c>
       <c r="H6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="I6" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
-        <v>70</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
+        <v>53</v>
       </c>
       <c r="B7" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E7" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -9657,26 +9775,26 @@
         <v>SI</v>
       </c>
       <c r="G7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.05)</f>
-        <v>9.05</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.6)</f>
+        <v>9.6</v>
       </c>
       <c r="H7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="I7" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
-        <v>84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),62.0)</f>
+        <v>62</v>
       </c>
       <c r="B8" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -9687,50 +9805,50 @@
         <v>2</v>
       </c>
       <c r="D8" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E8" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
       <c r="F8" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI ")</f>
+        <v>SI </v>
       </c>
       <c r="G8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.11)</f>
-        <v>9.11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
       </c>
       <c r="H8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="I8" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
-        <v>120</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
+        <v>70</v>
       </c>
       <c r="B9" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C9" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E9" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -9741,38 +9859,38 @@
         <v>SI</v>
       </c>
       <c r="G9" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
-        <v>8.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.05)</f>
+        <v>9.05</v>
       </c>
       <c r="H9" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="I9" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J9" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
-        <v>130</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
       </c>
       <c r="B10" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
         <v>M</v>
       </c>
       <c r="C10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E10" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -9783,34 +9901,34 @@
         <v>SI</v>
       </c>
       <c r="G10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.4)</f>
-        <v>9.4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.11)</f>
+        <v>9.11</v>
       </c>
       <c r="H10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="I10" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),88.0)</f>
+        <v>88</v>
       </c>
       <c r="B11" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
         <v>F</v>
       </c>
       <c r="C11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="D11" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
@@ -9821,42 +9939,42 @@
         <v>2</v>
       </c>
       <c r="F11" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI ")</f>
+        <v>SI </v>
       </c>
       <c r="G11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.3)</f>
-        <v>9.3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.3)</f>
+        <v>8.3</v>
       </c>
       <c r="H11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="I11" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
-        <v>148</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
       </c>
       <c r="B12" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E12" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -9867,26 +9985,26 @@
         <v>SI</v>
       </c>
       <c r="G12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
       </c>
       <c r="H12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="I12" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),159.0)</f>
-        <v>159</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
+        <v>130</v>
       </c>
       <c r="B13" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -9897,8 +10015,8 @@
         <v>3</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E13" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -9909,12 +10027,12 @@
         <v>SI</v>
       </c>
       <c r="G13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.3)</f>
-        <v>8.3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.4)</f>
+        <v>9.4</v>
       </c>
       <c r="H13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="I13" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
@@ -9927,12 +10045,12 @@
     </row>
     <row r="14">
       <c r="A14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),160.0)</f>
-        <v>160</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
       </c>
       <c r="B14" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C14" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
@@ -9951,38 +10069,38 @@
         <v>SI</v>
       </c>
       <c r="G14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
-        <v>9.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.3)</f>
+        <v>9.3</v>
       </c>
       <c r="H14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
       <c r="I14" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
-        <v>167</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
       </c>
       <c r="B15" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C15" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E15" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -9993,26 +10111,26 @@
         <v>SI</v>
       </c>
       <c r="G15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
       </c>
       <c r="H15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="I15" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
-        <v>168</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),159.0)</f>
+        <v>159</v>
       </c>
       <c r="B16" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -10023,8 +10141,8 @@
         <v>3</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E16" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10035,18 +10153,144 @@
         <v>SI</v>
       </c>
       <c r="G16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.9)</f>
-        <v>8.9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.3)</f>
+        <v>8.3</v>
       </c>
       <c r="H16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
       <c r="I16" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J16" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),160.0)</f>
+        <v>160</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C17" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E17" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G17" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
+        <v>9.2</v>
+      </c>
+      <c r="H17" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J17" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
+        <v>167</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C18" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E18" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G18" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
+      </c>
+      <c r="H18" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J18" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
+        <v>168</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C19" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E19" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G19" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.9)</f>
+        <v>8.9</v>
+      </c>
+      <c r="H19" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J19" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
         <v>44</v>
       </c>
@@ -10062,55 +10306,48 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("{BD_ESTUDIO!A1:J1; FILTER(BD_ESTUDIO!A2:J1000, BD_ESTUDIO!I2:I1000=""Bajo"", BD_ESTUDIO!E2:E1000=2, BD_ESTUDIO!F2:F1000=""SI"")}"),"Caso")</f>
-        <v>Caso</v>
-      </c>
-      <c r="B1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sexo")</f>
-        <v>Sexo</v>
-      </c>
-      <c r="C1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Grado")</f>
-        <v>Grado</v>
-      </c>
-      <c r="D1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Grupo")</f>
-        <v>Grupo</v>
-      </c>
-      <c r="E1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Condicion_Experimental")</f>
-        <v>Condicion_Experimental</v>
-      </c>
-      <c r="F1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Participacion")</f>
-        <v>Participacion</v>
-      </c>
-      <c r="G1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Promedio ")</f>
-        <v>Promedio </v>
-      </c>
-      <c r="H1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Puntaje_Pretest")</f>
-        <v>Puntaje_Pretest</v>
-      </c>
-      <c r="I1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NivelLectura-Pretest")</f>
-        <v>NivelLectura-Pretest</v>
-      </c>
-      <c r="J1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Puntaje_Postest")</f>
-        <v>Puntaje_Postest</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("FILTER(  BD_ESTUDIO!A2:J1000,  (TRIM(BD_ESTUDIO!I2:I1000)=""Bajo"") *  (  (BD_ESTUDIO!E2:E1000=2)*(TRIM(BD_ESTUDIO!F2:F1000)=""SI"")))"),7.0)</f>
         <v>7</v>
       </c>
       <c r="B2" s="10" t="str">
@@ -10152,8 +10389,8 @@
     </row>
     <row r="3">
       <c r="A3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12.0)</f>
+        <v>12</v>
       </c>
       <c r="B3" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -10172,34 +10409,34 @@
         <v>2</v>
       </c>
       <c r="F3" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI ")</f>
+        <v>SI </v>
       </c>
       <c r="G3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.75)</f>
-        <v>8.75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
       </c>
       <c r="H3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
       <c r="I3" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
-        <v>15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
       </c>
       <c r="B4" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C4" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -10222,22 +10459,22 @@
         <v>8.75</v>
       </c>
       <c r="H4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
       </c>
       <c r="I4" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
+        <v>15</v>
       </c>
       <c r="B5" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -10260,26 +10497,26 @@
         <v>SI</v>
       </c>
       <c r="G5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.7)</f>
-        <v>8.7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.75)</f>
+        <v>8.75</v>
       </c>
       <c r="H5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
       </c>
       <c r="I5" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
       </c>
       <c r="B6" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -10290,8 +10527,8 @@
         <v>1</v>
       </c>
       <c r="D6" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E6" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10302,26 +10539,26 @@
         <v>SI</v>
       </c>
       <c r="G6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.08)</f>
-        <v>9.08</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.7)</f>
+        <v>8.7</v>
       </c>
       <c r="H6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="I6" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
       <c r="B7" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -10344,26 +10581,26 @@
         <v>SI</v>
       </c>
       <c r="G7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
-        <v>9.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.08)</f>
+        <v>9.08</v>
       </c>
       <c r="H7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
       <c r="I7" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
+        <v>35</v>
       </c>
       <c r="B8" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -10386,26 +10623,26 @@
         <v>SI</v>
       </c>
       <c r="G8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.26)</f>
-        <v>9.26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
+        <v>9.2</v>
       </c>
       <c r="H8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
       </c>
       <c r="I8" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
       <c r="B9" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -10416,8 +10653,8 @@
         <v>1</v>
       </c>
       <c r="D9" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E9" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10428,80 +10665,80 @@
         <v>SI</v>
       </c>
       <c r="G9" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.02)</f>
-        <v>9.02</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.26)</f>
+        <v>9.26</v>
       </c>
       <c r="H9" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
       </c>
       <c r="I9" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J9" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
-        <v>63</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),50.0)</f>
+        <v>50</v>
       </c>
       <c r="B10" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E10" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
       <c r="F10" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI ")</f>
+        <v>SI </v>
       </c>
       <c r="G10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
-        <v>9.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.1)</f>
+        <v>9.1</v>
       </c>
       <c r="H10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
       </c>
       <c r="I10" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
-        <v>74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
+        <v>58</v>
       </c>
       <c r="B11" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
         <v>M</v>
       </c>
       <c r="C11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E11" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10512,30 +10749,30 @@
         <v>SI</v>
       </c>
       <c r="G11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.4)</f>
-        <v>8.4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.02)</f>
+        <v>9.02</v>
       </c>
       <c r="H11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="I11" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
-        <v>77</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
+        <v>63</v>
       </c>
       <c r="B12" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C12" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10554,26 +10791,26 @@
         <v>SI</v>
       </c>
       <c r="G12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.2)</f>
-        <v>8.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
+        <v>9.2</v>
       </c>
       <c r="H12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="I12" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
-        <v>92</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
       </c>
       <c r="B13" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -10584,8 +10821,8 @@
         <v>2</v>
       </c>
       <c r="D13" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E13" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10596,8 +10833,8 @@
         <v>SI</v>
       </c>
       <c r="G13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.8)</f>
-        <v>8.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.4)</f>
+        <v>8.4</v>
       </c>
       <c r="H13" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
@@ -10608,26 +10845,26 @@
         <v>Bajo</v>
       </c>
       <c r="J13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
+        <v>77</v>
       </c>
       <c r="B14" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C14" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
       <c r="D14" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E14" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10638,38 +10875,38 @@
         <v>SI</v>
       </c>
       <c r="G14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
-        <v>8.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.2)</f>
+        <v>8.2</v>
       </c>
       <c r="H14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
       </c>
       <c r="I14" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
-        <v>112</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
+        <v>92</v>
       </c>
       <c r="B15" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C15" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
       <c r="D15" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E15" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10680,38 +10917,38 @@
         <v>SI</v>
       </c>
       <c r="G15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.42)</f>
-        <v>8.42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.8)</f>
+        <v>8.8</v>
       </c>
       <c r="H15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="I15" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.0)</f>
-        <v>131</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
       </c>
       <c r="B16" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
         <v>M</v>
       </c>
       <c r="C16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="D16" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E16" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10722,38 +10959,38 @@
         <v>SI</v>
       </c>
       <c r="G16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
-        <v>9.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
       </c>
       <c r="H16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
       </c>
       <c r="I16" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
-        <v>134</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
+        <v>112</v>
       </c>
       <c r="B17" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
         <v>F</v>
       </c>
       <c r="C17" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E17" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10764,38 +11001,38 @@
         <v>SI</v>
       </c>
       <c r="G17" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
-        <v>8.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.42)</f>
+        <v>8.42</v>
       </c>
       <c r="H17" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
       </c>
       <c r="I17" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J17" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.0)</f>
+        <v>131</v>
       </c>
       <c r="B18" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C18" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E18" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10806,26 +11043,26 @@
         <v>SI</v>
       </c>
       <c r="G18" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.7)</f>
-        <v>8.7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
+        <v>9.2</v>
       </c>
       <c r="H18" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="I18" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J18" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
-        <v>149</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
+        <v>134</v>
       </c>
       <c r="B19" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -10836,8 +11073,8 @@
         <v>3</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E19" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10848,26 +11085,26 @@
         <v>SI</v>
       </c>
       <c r="G19" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.2)</f>
-        <v>8.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
       </c>
       <c r="H19" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="I19" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J19" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
-        <v>174</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),138.0)</f>
+        <v>138</v>
       </c>
       <c r="B20" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -10878,38 +11115,38 @@
         <v>3</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E20" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
       <c r="F20" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI ")</f>
+        <v>SI </v>
       </c>
       <c r="G20" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.79)</f>
-        <v>8.79</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
       </c>
       <c r="H20" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
       </c>
       <c r="I20" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J20" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
-        <v>178</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
       </c>
       <c r="B21" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -10920,8 +11157,8 @@
         <v>3</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E21" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10932,38 +11169,38 @@
         <v>SI</v>
       </c>
       <c r="G21" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.1)</f>
-        <v>8.1</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.7)</f>
+        <v>8.7</v>
       </c>
       <c r="H21" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="I21" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J21" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179.0)</f>
-        <v>179</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
+        <v>149</v>
       </c>
       <c r="B22" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C22" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E22" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
@@ -10974,12 +11211,12 @@
         <v>SI</v>
       </c>
       <c r="G22" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.2)</f>
+        <v>8.2</v>
       </c>
       <c r="H22" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="I22" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
@@ -10992,8 +11229,8 @@
     </row>
     <row r="23">
       <c r="A23" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),180.0)</f>
-        <v>180</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
       </c>
       <c r="B23" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -11016,18 +11253,144 @@
         <v>SI</v>
       </c>
       <c r="G23" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
-        <v>9.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.79)</f>
+        <v>8.79</v>
       </c>
       <c r="H23" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="I23" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J23" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
+        <v>178</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.1)</f>
+        <v>8.1</v>
+      </c>
+      <c r="H24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179.0)</f>
+        <v>179</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C25" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E25" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F25" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G25" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
+      </c>
+      <c r="H25" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J25" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),180.0)</f>
+        <v>180</v>
+      </c>
+      <c r="B26" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C26" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E26" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G26" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
+        <v>9.2</v>
+      </c>
+      <c r="H26" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J26" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
         <v>42</v>
       </c>
@@ -11048,13 +11411,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="12.67"/>
+    <col customWidth="1" min="10" max="10" width="17.0"/>
     <col customWidth="1" min="14" max="14" width="12.22"/>
     <col customWidth="1" min="16" max="16" width="14.56"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("{BD_ESTUDIO!A1:J1; FILTER(BD_ESTUDIO!A2:J1000, BD_ESTUDIO!E2:E1000=2, BD_ESTUDIO!F2:F1000=""SI"")}"),"Caso")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("{BD_ESTUDIO!A1:J1; FILTER(BD_ESTUDIO!A2:J1000, BD_ESTUDIO!E2:E1000=1, BD_ESTUDIO!F2:F1000=""NO"")}"),"Caso")</f>
         <v>Caso</v>
       </c>
       <c r="B1" s="10" t="str">
@@ -11099,8 +11463,8 @@
     </row>
     <row r="2">
       <c r="A2" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
-        <v>7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="B2" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -11115,28 +11479,28 @@
         <v>A</v>
       </c>
       <c r="E2" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F2" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G2" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.8)</f>
-        <v>8.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.27)</f>
+        <v>8.27</v>
       </c>
       <c r="H2" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
       <c r="I2" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
-        <v>Bajo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
       </c>
       <c r="J2" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>35</v>
@@ -11156,12 +11520,12 @@
     </row>
     <row r="3">
       <c r="A3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),11.0)</f>
+        <v>11</v>
       </c>
       <c r="B3" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C3" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -11172,38 +11536,38 @@
         <v>A</v>
       </c>
       <c r="E3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F3" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
       </c>
       <c r="H3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
       </c>
       <c r="I3" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
-        <v>Alto</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
       </c>
       <c r="J3" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
-        <v>13</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),14.0)</f>
+        <v>14</v>
       </c>
       <c r="B4" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C4" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -11214,38 +11578,38 @@
         <v>A</v>
       </c>
       <c r="E4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F4" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.75)</f>
-        <v>8.75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.67)</f>
+        <v>8.67</v>
       </c>
       <c r="H4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
       </c>
       <c r="I4" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J4" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
-        <v>15</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),18.0)</f>
+        <v>18</v>
       </c>
       <c r="B5" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C5" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -11256,38 +11620,38 @@
         <v>A</v>
       </c>
       <c r="E5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F5" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.75)</f>
-        <v>8.75</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.81)</f>
+        <v>8.81</v>
       </c>
       <c r="H5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="I5" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
-        <v>Bajo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
       </c>
       <c r="J5" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
-        <v>16</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),19.0)</f>
+        <v>19</v>
       </c>
       <c r="B6" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C6" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -11298,80 +11662,80 @@
         <v>A</v>
       </c>
       <c r="E6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F6" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.7)</f>
-        <v>8.7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.27)</f>
+        <v>9.27</v>
       </c>
       <c r="H6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="I6" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
-        <v>Bajo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
       </c>
       <c r="J6" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
-        <v>17</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),21.0)</f>
+        <v>21</v>
       </c>
       <c r="B7" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C7" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="D7" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F7" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.8)</f>
-        <v>8.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.52)</f>
+        <v>9.52</v>
       </c>
       <c r="H7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="I7" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J7" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),33.0)</f>
+        <v>33</v>
       </c>
       <c r="B8" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C8" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
@@ -11382,34 +11746,34 @@
         <v>B</v>
       </c>
       <c r="E8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F8" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.4)</f>
+        <v>9.4</v>
       </c>
       <c r="H8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="I8" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
-        <v>Medio</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
       </c>
       <c r="J8" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),37.0)</f>
+        <v>37</v>
       </c>
       <c r="B9" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -11424,16 +11788,16 @@
         <v>B</v>
       </c>
       <c r="E9" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F9" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G9" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.2)</f>
-        <v>8.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.9)</f>
+        <v>7.9</v>
       </c>
       <c r="H9" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
@@ -11444,14 +11808,14 @@
         <v>Alto</v>
       </c>
       <c r="J9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
         <v>42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
       </c>
       <c r="B10" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -11462,80 +11826,80 @@
         <v>1</v>
       </c>
       <c r="D10" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F10" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.84)</f>
-        <v>9.84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.7)</f>
+        <v>9.7</v>
       </c>
       <c r="H10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="I10" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
-        <v>Medio</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
       </c>
       <c r="J10" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),49.0)</f>
+        <v>49</v>
       </c>
       <c r="B11" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C11" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
       <c r="D11" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F11" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.08)</f>
-        <v>9.08</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.8)</f>
+        <v>9.8</v>
       </c>
       <c r="H11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
       </c>
       <c r="I11" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J11" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
-        <v>35</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),57.0)</f>
+        <v>57</v>
       </c>
       <c r="B12" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -11546,234 +11910,234 @@
         <v>1</v>
       </c>
       <c r="D12" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E12" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G12" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.79)</f>
+        <v>8.79</v>
+      </c>
+      <c r="H12" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
+      </c>
+      <c r="J12" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),61.0)</f>
+        <v>61</v>
+      </c>
+      <c r="B13" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C13" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
-      <c r="F12" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
-        <v>9.2</v>
-      </c>
-      <c r="H12" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
-      </c>
-      <c r="I12" s="10" t="str">
+      <c r="D13" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E13" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G13" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.1)</f>
+        <v>8.1</v>
+      </c>
+      <c r="H13" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
+      </c>
+      <c r="J13" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),75.0)</f>
+        <v>75</v>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C14" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E14" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G14" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H14" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
+      </c>
+      <c r="I14" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J14" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),78.0)</f>
+        <v>78</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C15" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E15" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G15" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.3)</f>
+        <v>7.3</v>
+      </c>
+      <c r="H15" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J15" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
-      </c>
-      <c r="B13" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
-      </c>
-      <c r="C13" s="10">
+    <row r="16">
+      <c r="A16" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),79.0)</f>
+        <v>79</v>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C16" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E16" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
-      </c>
-      <c r="E13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="F13" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.26)</f>
-        <v>9.26</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="F16" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G16" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.34)</f>
+        <v>8.34</v>
+      </c>
+      <c r="H16" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
         <v>20</v>
-      </c>
-      <c r="I13" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
-        <v>Bajo</v>
-      </c>
-      <c r="J13" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
-      </c>
-      <c r="B14" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
-      </c>
-      <c r="C14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
-      </c>
-      <c r="E14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="F14" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.1)</f>
-        <v>8.1</v>
-      </c>
-      <c r="H14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
-      </c>
-      <c r="I14" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
-        <v>Medio</v>
-      </c>
-      <c r="J14" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
-        <v>53</v>
-      </c>
-      <c r="B15" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
-      </c>
-      <c r="C15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
-      </c>
-      <c r="E15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="F15" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.6)</f>
-        <v>9.6</v>
-      </c>
-      <c r="H15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
-      </c>
-      <c r="I15" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
-        <v>Medio</v>
-      </c>
-      <c r="J15" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
-        <v>58</v>
-      </c>
-      <c r="B16" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
-      </c>
-      <c r="C16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
-      </c>
-      <c r="E16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="F16" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.02)</f>
-        <v>9.02</v>
-      </c>
-      <c r="H16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
       </c>
       <c r="I16" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J16" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
-        <v>63</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),87.0)</f>
+        <v>87</v>
       </c>
       <c r="B17" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C17" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
       <c r="D17" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E17" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F17" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G17" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
         <v>9.2</v>
       </c>
       <c r="H17" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
       </c>
       <c r="I17" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
@@ -11786,8 +12150,8 @@
     </row>
     <row r="18">
       <c r="A18" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
-        <v>70</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),90.0)</f>
+        <v>90</v>
       </c>
       <c r="B18" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -11798,62 +12162,62 @@
         <v>2</v>
       </c>
       <c r="D18" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E18" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F18" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G18" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.05)</f>
-        <v>9.05</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.8)</f>
+        <v>9.8</v>
       </c>
       <c r="H18" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
       </c>
       <c r="I18" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
-        <v>Medio</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
       </c>
       <c r="J18" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
-        <v>74</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),97.0)</f>
+        <v>97</v>
       </c>
       <c r="B19" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C19" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
       <c r="D19" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E19" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F19" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G19" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.4)</f>
-        <v>8.4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G19" s="26">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.9)</f>
+        <v>7.9</v>
       </c>
       <c r="H19" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
@@ -11864,38 +12228,38 @@
         <v>Bajo</v>
       </c>
       <c r="J19" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
-        <v>77</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),99.0)</f>
+        <v>99</v>
       </c>
       <c r="B20" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C20" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
       <c r="D20" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E20" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F20" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G20" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.2)</f>
-        <v>8.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
+        <v>9.2</v>
       </c>
       <c r="H20" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
@@ -11906,46 +12270,46 @@
         <v>Bajo</v>
       </c>
       <c r="J20" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
-        <v>84</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),109.0)</f>
+        <v>109</v>
       </c>
       <c r="B21" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C21" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
         <v>2</v>
       </c>
       <c r="D21" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E21" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F21" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G21" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.11)</f>
-        <v>9.11</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.5)</f>
+        <v>9.5</v>
       </c>
       <c r="H21" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="I21" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
-        <v>Medio</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
       </c>
       <c r="J21" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
@@ -11954,8 +12318,8 @@
     </row>
     <row r="22">
       <c r="A22" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
-        <v>89</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),117.0)</f>
+        <v>117</v>
       </c>
       <c r="B22" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -11966,146 +12330,146 @@
         <v>2</v>
       </c>
       <c r="D22" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E22" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F22" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G22" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.4)</f>
-        <v>9.4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.7)</f>
+        <v>9.7</v>
       </c>
       <c r="H22" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="I22" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
-        <v>Alto</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
       </c>
       <c r="J22" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
-        <v>92</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),132.0)</f>
+        <v>132</v>
       </c>
       <c r="B23" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
         <v>M</v>
       </c>
       <c r="C23" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="D23" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E23" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F23" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G23" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.8)</f>
-        <v>8.8</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.86)</f>
+        <v>7.86</v>
       </c>
       <c r="H23" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
       </c>
       <c r="I23" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
-        <v>Bajo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
       </c>
       <c r="J23" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),102.0)</f>
-        <v>102</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),133.0)</f>
+        <v>133</v>
       </c>
       <c r="B24" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C24" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="D24" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E24" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F24" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G24" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
-        <v>8.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.6)</f>
+        <v>8.6</v>
       </c>
       <c r="H24" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
-      </c>
-      <c r="I24" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
-        <v>Alto</v>
-      </c>
-      <c r="J24" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
         <v>40</v>
       </c>
+      <c r="I24" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
-        <v>110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),135.0)</f>
+        <v>135</v>
       </c>
       <c r="B25" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
         <v>M</v>
       </c>
       <c r="C25" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="D25" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E25" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F25" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G25" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
-        <v>8.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.18)</f>
+        <v>9.18</v>
       </c>
       <c r="H25" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
@@ -12116,98 +12480,98 @@
         <v>Bajo</v>
       </c>
       <c r="J25" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
-        <v>112</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),136.0)</f>
+        <v>136</v>
       </c>
       <c r="B26" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
         <v>F</v>
       </c>
       <c r="C26" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="D26" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E26" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F26" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G26" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.42)</f>
-        <v>8.42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G26" s="26">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.4)</f>
+        <v>9.4</v>
       </c>
       <c r="H26" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
       <c r="I26" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J26" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
-        <v>120</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),137.0)</f>
+        <v>137</v>
       </c>
       <c r="B27" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C27" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
       </c>
       <c r="D27" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
       </c>
       <c r="E27" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F27" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G27" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
-        <v>8.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.6)</f>
+        <v>8.6</v>
       </c>
       <c r="H27" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
       </c>
       <c r="I27" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
-        <v>Medio</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
       </c>
       <c r="J27" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
-        <v>130</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),144.0)</f>
+        <v>144</v>
       </c>
       <c r="B28" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
@@ -12218,62 +12582,62 @@
         <v>3</v>
       </c>
       <c r="D28" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E28" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F28" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G28" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.4)</f>
-        <v>9.4</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
       </c>
       <c r="H28" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
       </c>
       <c r="I28" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J28" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.0)</f>
-        <v>131</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),147.0)</f>
+        <v>147</v>
       </c>
       <c r="B29" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C29" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
       <c r="D29" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E29" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F29" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G29" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
-        <v>9.2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
       </c>
       <c r="H29" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
@@ -12284,14 +12648,14 @@
         <v>Bajo</v>
       </c>
       <c r="J29" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
-        <v>134</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),151.0)</f>
+        <v>151</v>
       </c>
       <c r="B30" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -12302,38 +12666,38 @@
         <v>3</v>
       </c>
       <c r="D30" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
-        <v>A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
       </c>
       <c r="E30" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F30" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G30" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
         <v>8.5</v>
       </c>
       <c r="H30" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="I30" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
-        <v>Bajo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
       </c>
       <c r="J30" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
-        <v>140</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),163.0)</f>
+        <v>163</v>
       </c>
       <c r="B31" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -12344,38 +12708,38 @@
         <v>3</v>
       </c>
       <c r="D31" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E31" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F31" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G31" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.7)</f>
-        <v>8.7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
       </c>
       <c r="H31" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
-        <v>30</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="I31" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
-        <v>Bajo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
       </c>
       <c r="J31" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
-        <v>46</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
-        <v>141</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),171.0)</f>
+        <v>171</v>
       </c>
       <c r="B32" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -12386,122 +12750,122 @@
         <v>3</v>
       </c>
       <c r="D32" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E32" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F32" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G32" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.3)</f>
-        <v>9.3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G32" s="26">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
       </c>
       <c r="H32" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
       <c r="I32" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
-        <v>Medio</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
       </c>
       <c r="J32" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
-        <v>146</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),172.0)</f>
+        <v>172</v>
       </c>
       <c r="B33" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
       </c>
       <c r="C33" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
       <c r="D33" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E33" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F33" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G33" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
-        <v>8.5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
+      </c>
+      <c r="G33" s="26">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.6)</f>
+        <v>8.6</v>
       </c>
       <c r="H33" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J33" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
         <v>42</v>
       </c>
-      <c r="I33" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
-        <v>Alto</v>
-      </c>
-      <c r="J33" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
-        <v>148</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),176.0)</f>
+        <v>176</v>
       </c>
       <c r="B34" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
       </c>
       <c r="C34" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
         <v>3</v>
       </c>
       <c r="D34" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E34" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F34" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G34" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.25)</f>
+        <v>8.25</v>
       </c>
       <c r="H34" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
-        <v>34</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
       </c>
       <c r="I34" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
         <v>Medio</v>
       </c>
       <c r="J34" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
-        <v>149</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),177.0)</f>
+        <v>177</v>
       </c>
       <c r="B35" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
@@ -12512,372 +12876,36 @@
         <v>3</v>
       </c>
       <c r="D35" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
       </c>
       <c r="E35" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
       </c>
       <c r="F35" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NO")</f>
+        <v>NO</v>
       </c>
       <c r="G35" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.2)</f>
         <v>8.2</v>
       </c>
       <c r="H35" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
       </c>
       <c r="I35" s="10" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
         <v>Bajo</v>
       </c>
       <c r="J35" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),159.0)</f>
-        <v>159</v>
-      </c>
-      <c r="B36" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
-      </c>
-      <c r="C36" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
-      </c>
-      <c r="D36" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
-      </c>
-      <c r="E36" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="F36" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G36" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.3)</f>
-        <v>8.3</v>
-      </c>
-      <c r="H36" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
-        <v>36</v>
-      </c>
-      <c r="I36" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
-        <v>Medio</v>
-      </c>
-      <c r="J36" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),160.0)</f>
-        <v>160</v>
-      </c>
-      <c r="B37" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
-      </c>
-      <c r="C37" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
-      </c>
-      <c r="D37" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
-        <v>B</v>
-      </c>
-      <c r="E37" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="F37" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G37" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
-        <v>9.2</v>
-      </c>
-      <c r="H37" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
-      </c>
-      <c r="I37" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
-        <v>Medio</v>
-      </c>
-      <c r="J37" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
-        <v>167</v>
-      </c>
-      <c r="B38" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
-      </c>
-      <c r="C38" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
-      </c>
-      <c r="D38" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
-      </c>
-      <c r="E38" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="F38" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G38" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
-        <v>8</v>
-      </c>
-      <c r="H38" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
-        <v>38</v>
-      </c>
-      <c r="I38" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
-        <v>Medio</v>
-      </c>
-      <c r="J38" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
-        <v>168</v>
-      </c>
-      <c r="B39" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
-      </c>
-      <c r="C39" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
-      </c>
-      <c r="D39" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
-      </c>
-      <c r="E39" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="F39" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G39" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.9)</f>
-        <v>8.9</v>
-      </c>
-      <c r="H39" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
-        <v>40</v>
-      </c>
-      <c r="I39" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
-        <v>Medio</v>
-      </c>
-      <c r="J39" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
-        <v>174</v>
-      </c>
-      <c r="B40" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
-      </c>
-      <c r="C40" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
-      </c>
-      <c r="D40" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
-      </c>
-      <c r="E40" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="F40" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G40" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.79)</f>
-        <v>8.79</v>
-      </c>
-      <c r="H40" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
-        <v>32</v>
-      </c>
-      <c r="I40" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
-        <v>Bajo</v>
-      </c>
-      <c r="J40" s="10">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
         <v>46</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
-        <v>178</v>
-      </c>
-      <c r="B41" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
-        <v>F</v>
-      </c>
-      <c r="C41" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
-      </c>
-      <c r="D41" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
-      </c>
-      <c r="E41" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="F41" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G41" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.1)</f>
-        <v>8.1</v>
-      </c>
-      <c r="H41" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
-        <v>20</v>
-      </c>
-      <c r="I41" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
-        <v>Bajo</v>
-      </c>
-      <c r="J41" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179.0)</f>
-        <v>179</v>
-      </c>
-      <c r="B42" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
-      </c>
-      <c r="C42" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
-      </c>
-      <c r="D42" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
-      </c>
-      <c r="E42" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="F42" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G42" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
-        <v>9</v>
-      </c>
-      <c r="H42" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
-        <v>28</v>
-      </c>
-      <c r="I42" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
-        <v>Bajo</v>
-      </c>
-      <c r="J42" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),180.0)</f>
-        <v>180</v>
-      </c>
-      <c r="B43" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
-        <v>M</v>
-      </c>
-      <c r="C43" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
-        <v>3</v>
-      </c>
-      <c r="D43" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
-        <v>C</v>
-      </c>
-      <c r="E43" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
-        <v>2</v>
-      </c>
-      <c r="F43" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
-        <v>SI</v>
-      </c>
-      <c r="G43" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
-        <v>9.2</v>
-      </c>
-      <c r="H43" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
-        <v>24</v>
-      </c>
-      <c r="I43" s="10" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
-        <v>Bajo</v>
-      </c>
-      <c r="J43" s="10">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
-        <v>42</v>
-      </c>
-    </row>
     <row r="47">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="27" t="s">
         <v>39</v>
       </c>
     </row>
@@ -12897,728 +12925,728 @@
       <c r="E49" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="27"/>
+      <c r="F49" s="28"/>
     </row>
     <row r="50">
-      <c r="A50" s="28">
+      <c r="A50" s="29">
         <v>36.0</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="30">
         <v>26.0</v>
       </c>
-      <c r="D50" s="30">
+      <c r="D50" s="31">
         <v>1.0</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="31">
         <v>1.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="28">
+      <c r="A51" s="29">
         <v>35.0</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="30">
         <v>28.0</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="31">
         <v>2.0</v>
       </c>
-      <c r="E51" s="29">
+      <c r="E51" s="30">
         <f>SUM(D51:D53)/3</f>
         <v>3</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="28">
+      <c r="A52" s="29">
         <v>77.0</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="30">
         <v>28.0</v>
       </c>
-      <c r="D52" s="30">
+      <c r="D52" s="31">
         <v>3.0</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E52" s="31">
         <v>3.0</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="31">
+      <c r="A53" s="32">
         <v>44.0</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C53" s="32">
+      <c r="C53" s="33">
         <v>28.0</v>
       </c>
-      <c r="D53" s="33">
+      <c r="D53" s="34">
         <v>4.0</v>
       </c>
-      <c r="E53" s="33">
+      <c r="E53" s="34">
         <v>3.0</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="28">
+      <c r="A54" s="29">
         <v>13.0</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="30">
         <v>30.0</v>
       </c>
-      <c r="D54" s="30">
+      <c r="D54" s="31">
         <v>5.0</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="30">
         <f>SUM(D54:D55)/2</f>
         <v>5.5</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="28">
+      <c r="A55" s="29">
         <v>34.0</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="30">
         <v>30.0</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="31">
         <v>6.0</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E55" s="31">
         <v>5.5</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="28">
+      <c r="A56" s="29">
         <v>134.0</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="30">
         <v>34.0</v>
       </c>
-      <c r="D56" s="30">
+      <c r="D56" s="31">
         <v>7.0</v>
       </c>
-      <c r="E56" s="30">
+      <c r="E56" s="31">
         <v>7.0</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="28">
+      <c r="A57" s="29">
         <v>74.0</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="30">
         <v>36.0</v>
       </c>
-      <c r="D57" s="30">
+      <c r="D57" s="31">
         <v>8.0</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="30">
         <f>SUM(D57:D58)/2</f>
         <v>8.5</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="31">
+      <c r="A58" s="32">
         <v>32.0</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="32">
+      <c r="C58" s="33">
         <v>36.0</v>
       </c>
-      <c r="D58" s="33">
+      <c r="D58" s="34">
         <v>9.0</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="34">
         <v>8.5</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="28">
+      <c r="A59" s="29">
         <v>7.0</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="30">
         <v>38.0</v>
       </c>
-      <c r="D59" s="30">
+      <c r="D59" s="31">
         <v>10.0</v>
       </c>
-      <c r="E59" s="29">
+      <c r="E59" s="30">
         <f>SUM(D59:D60)/2</f>
         <v>10.5</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="31">
+      <c r="A60" s="32">
         <v>148.0</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="32">
+      <c r="C60" s="33">
         <v>38.0</v>
       </c>
-      <c r="D60" s="33">
+      <c r="D60" s="34">
         <v>11.0</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E60" s="34">
         <v>10.5</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="34">
+      <c r="A61" s="35">
         <v>102.0</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="36">
         <v>40.0</v>
       </c>
-      <c r="D61" s="36">
+      <c r="D61" s="37">
         <v>12.0</v>
       </c>
-      <c r="E61" s="35">
+      <c r="E61" s="36">
         <f>SUM(D61:D66)/6</f>
         <v>14.5</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="34">
+      <c r="A62" s="35">
         <v>146.0</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C62" s="36">
         <v>40.0</v>
       </c>
-      <c r="D62" s="36">
+      <c r="D62" s="37">
         <v>13.0</v>
       </c>
-      <c r="E62" s="36">
+      <c r="E62" s="37">
         <v>14.5</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="28">
+      <c r="A63" s="29">
         <v>63.0</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="29">
+      <c r="C63" s="30">
         <v>40.0</v>
       </c>
-      <c r="D63" s="30">
+      <c r="D63" s="31">
         <v>14.0</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="31">
         <v>14.5</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="28">
+      <c r="A64" s="29">
         <v>112.0</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="29">
+      <c r="C64" s="30">
         <v>40.0</v>
       </c>
-      <c r="D64" s="30">
+      <c r="D64" s="31">
         <v>15.0</v>
       </c>
-      <c r="E64" s="30">
+      <c r="E64" s="31">
         <v>14.5</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="31">
+      <c r="A65" s="32">
         <v>20.0</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="32">
+      <c r="C65" s="33">
         <v>40.0</v>
       </c>
-      <c r="D65" s="33">
+      <c r="D65" s="34">
         <v>16.0</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E65" s="34">
         <v>14.5</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="31">
+      <c r="A66" s="32">
         <v>53.0</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="32">
+      <c r="C66" s="33">
         <v>40.0</v>
       </c>
-      <c r="D66" s="33">
+      <c r="D66" s="34">
         <v>17.0</v>
       </c>
-      <c r="E66" s="33">
+      <c r="E66" s="34">
         <v>14.5</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="34">
+      <c r="A67" s="35">
         <v>26.0</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="36">
         <v>42.0</v>
       </c>
-      <c r="D67" s="36">
+      <c r="D67" s="37">
         <v>18.0</v>
       </c>
-      <c r="E67" s="35">
+      <c r="E67" s="36">
         <f>SUM(D67:D73)/7</f>
         <v>21</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="34">
+      <c r="A68" s="35">
         <v>89.0</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="36">
         <v>42.0</v>
       </c>
-      <c r="D68" s="36">
+      <c r="D68" s="37">
         <v>19.0</v>
       </c>
-      <c r="E68" s="36">
+      <c r="E68" s="37">
         <v>21.0</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="28">
+      <c r="A69" s="29">
         <v>15.0</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="29">
+      <c r="C69" s="30">
         <v>42.0</v>
       </c>
-      <c r="D69" s="30">
+      <c r="D69" s="31">
         <v>20.0</v>
       </c>
-      <c r="E69" s="30">
+      <c r="E69" s="31">
         <v>21.0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="28">
+      <c r="A70" s="29">
         <v>131.0</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="29">
+      <c r="C70" s="30">
         <v>42.0</v>
       </c>
-      <c r="D70" s="30">
+      <c r="D70" s="31">
         <v>21.0</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="31">
         <v>21.0</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="28">
+      <c r="A71" s="29">
         <v>180.0</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="29">
+      <c r="C71" s="30">
         <v>42.0</v>
       </c>
-      <c r="D71" s="30">
+      <c r="D71" s="31">
         <v>22.0</v>
       </c>
-      <c r="E71" s="30">
+      <c r="E71" s="31">
         <v>21.0</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="31">
+      <c r="A72" s="32">
         <v>120.0</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C72" s="32">
+      <c r="C72" s="33">
         <v>42.0</v>
       </c>
-      <c r="D72" s="33">
+      <c r="D72" s="34">
         <v>23.0</v>
       </c>
-      <c r="E72" s="33">
+      <c r="E72" s="34">
         <v>21.0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="31">
+      <c r="A73" s="32">
         <v>160.0</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="32">
+      <c r="C73" s="33">
         <v>42.0</v>
       </c>
-      <c r="D73" s="33">
+      <c r="D73" s="34">
         <v>24.0</v>
       </c>
-      <c r="E73" s="33">
+      <c r="E73" s="34">
         <v>21.0</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="34">
+      <c r="A74" s="35">
         <v>8.0</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="36">
         <v>44.0</v>
       </c>
-      <c r="D74" s="36">
+      <c r="D74" s="37">
         <v>25.0</v>
       </c>
-      <c r="E74" s="35">
+      <c r="E74" s="36">
         <f>SUM(D74:D80)/7</f>
         <v>28</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="28">
+      <c r="A75" s="29">
         <v>110.0</v>
       </c>
-      <c r="B75" s="29" t="s">
+      <c r="B75" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="29">
+      <c r="C75" s="30">
         <v>44.0</v>
       </c>
-      <c r="D75" s="30">
+      <c r="D75" s="31">
         <v>26.0</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="31">
         <v>28.0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="28">
+      <c r="A76" s="29">
         <v>149.0</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="29">
+      <c r="C76" s="30">
         <v>44.0</v>
       </c>
-      <c r="D76" s="30">
+      <c r="D76" s="31">
         <v>27.0</v>
       </c>
-      <c r="E76" s="30">
+      <c r="E76" s="31">
         <v>28.0</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="28">
+      <c r="A77" s="29">
         <v>179.0</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="29">
+      <c r="C77" s="30">
         <v>44.0</v>
       </c>
-      <c r="D77" s="30">
+      <c r="D77" s="31">
         <v>28.0</v>
       </c>
-      <c r="E77" s="30">
+      <c r="E77" s="31">
         <v>28.0</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="31">
+      <c r="A78" s="32">
         <v>130.0</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B78" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C78" s="32">
+      <c r="C78" s="33">
         <v>44.0</v>
       </c>
-      <c r="D78" s="33">
+      <c r="D78" s="34">
         <v>29.0</v>
       </c>
-      <c r="E78" s="33">
+      <c r="E78" s="34">
         <v>28.0</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="31">
+      <c r="A79" s="32">
         <v>159.0</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="32">
+      <c r="C79" s="33">
         <v>44.0</v>
       </c>
-      <c r="D79" s="33">
+      <c r="D79" s="34">
         <v>30.0</v>
       </c>
-      <c r="E79" s="33">
+      <c r="E79" s="34">
         <v>28.0</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="31">
+      <c r="A80" s="32">
         <v>168.0</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C80" s="32">
+      <c r="C80" s="33">
         <v>44.0</v>
       </c>
-      <c r="D80" s="33">
+      <c r="D80" s="34">
         <v>31.0</v>
       </c>
-      <c r="E80" s="33">
+      <c r="E80" s="34">
         <v>28.0</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="28">
+      <c r="A81" s="29">
         <v>16.0</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B81" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="29">
+      <c r="C81" s="30">
         <v>46.0</v>
       </c>
-      <c r="D81" s="30">
+      <c r="D81" s="31">
         <v>32.0</v>
       </c>
-      <c r="E81" s="30">
+      <c r="E81" s="31">
         <f>SUM(D81:D83)/3</f>
         <v>33</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="28">
+      <c r="A82" s="29">
         <v>140.0</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B82" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C82" s="29">
+      <c r="C82" s="30">
         <v>46.0</v>
       </c>
-      <c r="D82" s="30">
+      <c r="D82" s="31">
         <v>33.0</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E82" s="31">
         <v>33.0</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="28">
+      <c r="A83" s="29">
         <v>174.0</v>
       </c>
-      <c r="B83" s="29" t="s">
+      <c r="B83" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C83" s="29">
+      <c r="C83" s="30">
         <v>46.0</v>
       </c>
-      <c r="D83" s="30">
+      <c r="D83" s="31">
         <v>34.0</v>
       </c>
-      <c r="E83" s="30">
+      <c r="E83" s="31">
         <v>33.0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="28">
+      <c r="A84" s="29">
         <v>58.0</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B84" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="29">
+      <c r="C84" s="30">
         <v>48.0</v>
       </c>
-      <c r="D84" s="30">
+      <c r="D84" s="31">
         <v>35.0</v>
       </c>
-      <c r="E84" s="29">
+      <c r="E84" s="30">
         <f>SUM(D84:D91)/8</f>
         <v>38.5</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="28">
+      <c r="A85" s="29">
         <v>92.0</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B85" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="29">
+      <c r="C85" s="30">
         <v>48.0</v>
       </c>
-      <c r="D85" s="30">
+      <c r="D85" s="31">
         <v>36.0</v>
       </c>
-      <c r="E85" s="30">
+      <c r="E85" s="31">
         <v>38.5</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="28">
+      <c r="A86" s="29">
         <v>178.0</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="29">
+      <c r="C86" s="30">
         <v>48.0</v>
       </c>
-      <c r="D86" s="30">
+      <c r="D86" s="31">
         <v>37.0</v>
       </c>
-      <c r="E86" s="30">
+      <c r="E86" s="31">
         <v>38.5</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="31">
+      <c r="A87" s="32">
         <v>17.0</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="32">
+      <c r="C87" s="33">
         <v>48.0</v>
       </c>
-      <c r="D87" s="33">
+      <c r="D87" s="34">
         <v>38.0</v>
       </c>
-      <c r="E87" s="33">
+      <c r="E87" s="34">
         <v>38.5</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="31">
+      <c r="A88" s="32">
         <v>70.0</v>
       </c>
-      <c r="B88" s="32" t="s">
+      <c r="B88" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C88" s="32">
+      <c r="C88" s="33">
         <v>48.0</v>
       </c>
-      <c r="D88" s="33">
+      <c r="D88" s="34">
         <v>39.0</v>
       </c>
-      <c r="E88" s="33">
+      <c r="E88" s="34">
         <v>38.5</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="31">
+      <c r="A89" s="32">
         <v>84.0</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="B89" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C89" s="32">
+      <c r="C89" s="33">
         <v>48.0</v>
       </c>
-      <c r="D89" s="33">
+      <c r="D89" s="34">
         <v>40.0</v>
       </c>
-      <c r="E89" s="33">
+      <c r="E89" s="34">
         <v>38.5</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="31">
+      <c r="A90" s="32">
         <v>141.0</v>
       </c>
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C90" s="32">
+      <c r="C90" s="33">
         <v>48.0</v>
       </c>
-      <c r="D90" s="33">
+      <c r="D90" s="34">
         <v>41.0</v>
       </c>
-      <c r="E90" s="33">
+      <c r="E90" s="34">
         <v>38.5</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="31">
+      <c r="A91" s="32">
         <v>167.0</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="B91" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C91" s="32">
+      <c r="C91" s="33">
         <v>48.0</v>
       </c>
-      <c r="D91" s="33">
+      <c r="D91" s="34">
         <v>42.0</v>
       </c>
-      <c r="E91" s="33">
+      <c r="E91" s="34">
         <v>38.5</v>
       </c>
     </row>
@@ -13629,4 +13657,1825 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("{BD_ESTUDIO!A1:J1; FILTER(BD_ESTUDIO!A2:J1000, BD_ESTUDIO!E2:E1000=2, BD_ESTUDIO!F2:F1000=""SI"")}"),"Caso")</f>
+        <v>Caso</v>
+      </c>
+      <c r="B1" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Sexo")</f>
+        <v>Sexo</v>
+      </c>
+      <c r="C1" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Grado")</f>
+        <v>Grado</v>
+      </c>
+      <c r="D1" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Grupo")</f>
+        <v>Grupo</v>
+      </c>
+      <c r="E1" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Condicion_Experimental")</f>
+        <v>Condicion_Experimental</v>
+      </c>
+      <c r="F1" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Participacion")</f>
+        <v>Participacion</v>
+      </c>
+      <c r="G1" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Promedio ")</f>
+        <v>Promedio </v>
+      </c>
+      <c r="H1" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Puntaje_Pretest")</f>
+        <v>Puntaje_Pretest</v>
+      </c>
+      <c r="I1" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"NivelLectura-Pretest")</f>
+        <v>NivelLectura-Pretest</v>
+      </c>
+      <c r="J1" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Puntaje_Postest")</f>
+        <v>Puntaje_Postest</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),7.0)</f>
+        <v>7</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C2" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E2" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G2" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.8)</f>
+        <v>8.8</v>
+      </c>
+      <c r="H2" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
+      </c>
+      <c r="I2" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J2" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C3" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E3" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G3" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
+      </c>
+      <c r="H3" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
+      </c>
+      <c r="I3" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
+      </c>
+      <c r="J3" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),13.0)</f>
+        <v>13</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C4" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E4" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G4" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.75)</f>
+        <v>8.75</v>
+      </c>
+      <c r="H4" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
+      </c>
+      <c r="I4" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J4" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),15.0)</f>
+        <v>15</v>
+      </c>
+      <c r="B5" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C5" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E5" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G5" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.75)</f>
+        <v>8.75</v>
+      </c>
+      <c r="H5" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
+      </c>
+      <c r="I5" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J5" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),16.0)</f>
+        <v>16</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C6" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E6" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G6" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.7)</f>
+        <v>8.7</v>
+      </c>
+      <c r="H6" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J6" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),17.0)</f>
+        <v>17</v>
+      </c>
+      <c r="B7" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C7" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E7" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G7" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.8)</f>
+        <v>8.8</v>
+      </c>
+      <c r="H7" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J7" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C8" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E8" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G8" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
+      </c>
+      <c r="H8" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J8" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
+      </c>
+      <c r="B9" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F9" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.2)</f>
+        <v>8.2</v>
+      </c>
+      <c r="H9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
+      </c>
+      <c r="J9" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
+      </c>
+      <c r="B10" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C10" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E10" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F10" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G10" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.84)</f>
+        <v>9.84</v>
+      </c>
+      <c r="H10" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J10" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
+      </c>
+      <c r="B11" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C11" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E11" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G11" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.08)</f>
+        <v>9.08</v>
+      </c>
+      <c r="H11" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J11" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),35.0)</f>
+        <v>35</v>
+      </c>
+      <c r="B12" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C12" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E12" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G12" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
+        <v>9.2</v>
+      </c>
+      <c r="H12" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J12" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
+      </c>
+      <c r="B13" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C13" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E13" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G13" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.26)</f>
+        <v>9.26</v>
+      </c>
+      <c r="H13" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J13" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),26.0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C14" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E14" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F14" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G14" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.1)</f>
+        <v>8.1</v>
+      </c>
+      <c r="H14" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J14" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),53.0)</f>
+        <v>53</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C15" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E15" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F15" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G15" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.6)</f>
+        <v>9.6</v>
+      </c>
+      <c r="H15" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J15" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),58.0)</f>
+        <v>58</v>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C16" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.0)</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E16" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G16" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.02)</f>
+        <v>9.02</v>
+      </c>
+      <c r="H16" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J16" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),63.0)</f>
+        <v>63</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C17" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E17" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G17" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
+        <v>9.2</v>
+      </c>
+      <c r="H17" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J17" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),70.0)</f>
+        <v>70</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C18" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E18" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G18" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.05)</f>
+        <v>9.05</v>
+      </c>
+      <c r="H18" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J18" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),74.0)</f>
+        <v>74</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C19" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E19" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G19" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.4)</f>
+        <v>8.4</v>
+      </c>
+      <c r="H19" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J19" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),77.0)</f>
+        <v>77</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C20" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E20" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G20" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.2)</f>
+        <v>8.2</v>
+      </c>
+      <c r="H20" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J20" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),84.0)</f>
+        <v>84</v>
+      </c>
+      <c r="B21" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C21" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E21" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G21" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.11)</f>
+        <v>9.11</v>
+      </c>
+      <c r="H21" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J21" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),89.0)</f>
+        <v>89</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C22" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E22" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G22" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.4)</f>
+        <v>9.4</v>
+      </c>
+      <c r="H22" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
+      </c>
+      <c r="J22" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),92.0)</f>
+        <v>92</v>
+      </c>
+      <c r="B23" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C23" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E23" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F23" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G23" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.8)</f>
+        <v>8.8</v>
+      </c>
+      <c r="H23" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J23" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),102.0)</f>
+        <v>102</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F24" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
+      </c>
+      <c r="J24" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),110.0)</f>
+        <v>110</v>
+      </c>
+      <c r="B25" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C25" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E25" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F25" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G25" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H25" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J25" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),112.0)</f>
+        <v>112</v>
+      </c>
+      <c r="B26" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C26" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E26" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G26" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.42)</f>
+        <v>8.42</v>
+      </c>
+      <c r="H26" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J26" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),120.0)</f>
+        <v>120</v>
+      </c>
+      <c r="B27" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C27" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="D27" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E27" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F27" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G27" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H27" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J27" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),130.0)</f>
+        <v>130</v>
+      </c>
+      <c r="B28" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C28" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D28" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E28" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F28" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G28" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.4)</f>
+        <v>9.4</v>
+      </c>
+      <c r="H28" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J28" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),131.0)</f>
+        <v>131</v>
+      </c>
+      <c r="B29" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C29" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D29" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E29" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F29" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G29" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
+        <v>9.2</v>
+      </c>
+      <c r="H29" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J29" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),134.0)</f>
+        <v>134</v>
+      </c>
+      <c r="B30" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C30" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D30" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A")</f>
+        <v>A</v>
+      </c>
+      <c r="E30" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F30" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G30" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H30" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
+      </c>
+      <c r="I30" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J30" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),140.0)</f>
+        <v>140</v>
+      </c>
+      <c r="B31" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C31" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D31" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E31" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F31" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G31" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.7)</f>
+        <v>8.7</v>
+      </c>
+      <c r="H31" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),30.0)</f>
+        <v>30</v>
+      </c>
+      <c r="I31" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J31" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),141.0)</f>
+        <v>141</v>
+      </c>
+      <c r="B32" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C32" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D32" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E32" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F32" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G32" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.3)</f>
+        <v>9.3</v>
+      </c>
+      <c r="H32" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
+      </c>
+      <c r="I32" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J32" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),146.0)</f>
+        <v>146</v>
+      </c>
+      <c r="B33" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C33" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D33" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E33" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F33" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G33" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.5)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H33" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+      <c r="I33" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Alto")</f>
+        <v>Alto</v>
+      </c>
+      <c r="J33" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),148.0)</f>
+        <v>148</v>
+      </c>
+      <c r="B34" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C34" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D34" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E34" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F34" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G34" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
+      </c>
+      <c r="H34" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),34.0)</f>
+        <v>34</v>
+      </c>
+      <c r="I34" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J34" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),149.0)</f>
+        <v>149</v>
+      </c>
+      <c r="B35" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C35" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D35" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E35" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F35" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G35" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.2)</f>
+        <v>8.2</v>
+      </c>
+      <c r="H35" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
+      </c>
+      <c r="I35" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J35" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),159.0)</f>
+        <v>159</v>
+      </c>
+      <c r="B36" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C36" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D36" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E36" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F36" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G36" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.3)</f>
+        <v>8.3</v>
+      </c>
+      <c r="H36" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),36.0)</f>
+        <v>36</v>
+      </c>
+      <c r="I36" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J36" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),160.0)</f>
+        <v>160</v>
+      </c>
+      <c r="B37" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C37" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D37" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"B")</f>
+        <v>B</v>
+      </c>
+      <c r="E37" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F37" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G37" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
+        <v>9.2</v>
+      </c>
+      <c r="H37" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
+      </c>
+      <c r="I37" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J37" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),167.0)</f>
+        <v>167</v>
+      </c>
+      <c r="B38" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C38" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D38" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E38" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F38" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G38" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.0)</f>
+        <v>8</v>
+      </c>
+      <c r="H38" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),38.0)</f>
+        <v>38</v>
+      </c>
+      <c r="I38" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J38" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),168.0)</f>
+        <v>168</v>
+      </c>
+      <c r="B39" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C39" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D39" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E39" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F39" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G39" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.9)</f>
+        <v>8.9</v>
+      </c>
+      <c r="H39" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),40.0)</f>
+        <v>40</v>
+      </c>
+      <c r="I39" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medio")</f>
+        <v>Medio</v>
+      </c>
+      <c r="J39" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),174.0)</f>
+        <v>174</v>
+      </c>
+      <c r="B40" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C40" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D40" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E40" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F40" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G40" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.79)</f>
+        <v>8.79</v>
+      </c>
+      <c r="H40" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),32.0)</f>
+        <v>32</v>
+      </c>
+      <c r="I40" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J40" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),46.0)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),178.0)</f>
+        <v>178</v>
+      </c>
+      <c r="B41" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"F")</f>
+        <v>F</v>
+      </c>
+      <c r="C41" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D41" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E41" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F41" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G41" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),8.1)</f>
+        <v>8.1</v>
+      </c>
+      <c r="H41" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),20.0)</f>
+        <v>20</v>
+      </c>
+      <c r="I41" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J41" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),48.0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),179.0)</f>
+        <v>179</v>
+      </c>
+      <c r="B42" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C42" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D42" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E42" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F42" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G42" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.0)</f>
+        <v>9</v>
+      </c>
+      <c r="H42" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),28.0)</f>
+        <v>28</v>
+      </c>
+      <c r="I42" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J42" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),44.0)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),180.0)</f>
+        <v>180</v>
+      </c>
+      <c r="B43" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"M")</f>
+        <v>M</v>
+      </c>
+      <c r="C43" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),3.0)</f>
+        <v>3</v>
+      </c>
+      <c r="D43" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"C")</f>
+        <v>C</v>
+      </c>
+      <c r="E43" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="F43" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G43" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),9.2)</f>
+        <v>9.2</v>
+      </c>
+      <c r="H43" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
+        <v>24</v>
+      </c>
+      <c r="I43" s="10" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Bajo")</f>
+        <v>Bajo</v>
+      </c>
+      <c r="J43" s="10">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),42.0)</f>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>